--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -509,13 +509,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Verbraucht</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
         <v>45319</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="G3" t="n">
         <v>8.5</v>
       </c>
@@ -538,7 +542,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Verbraucht</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,37 @@
         <v>19.99</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TEST-100</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kupferrohr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Metaller AG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Verbraucht</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -581,7 +581,11 @@
           <t>28.01.2026</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="G5" t="n">
         <v>120</v>
       </c>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,37 @@
         <v>250</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ID-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WENI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Verbraucht</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -515,7 +515,11 @@
           <t>28.01.2026</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="G3" t="n">
         <v>350</v>
       </c>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,37 @@
         <v>450</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SN-2026-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hydraulikpumpe X1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tech-Parts</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,37 @@
         <v>450</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KABEL-NYM-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ring NYM-J 3x1.5 50m</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elektro-Zentrum</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Verbraucht</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -515,7 +515,11 @@
           <t>28.01.2026</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="G3" t="n">
         <v>450</v>
       </c>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,37 @@
         <v>32.5</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SN-2026-002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hydraulikpumpe X1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tech-Parts</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,37 @@
         <v>450</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SN-2026-002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydraulikpumpe X1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tech-Parts</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Verbraucht</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -581,7 +581,11 @@
           <t>28.01.2026</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="G5" t="n">
         <v>450</v>
       </c>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,37 +458,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SN-2026-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hydraulikpumpe X1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tech-Parts</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Eingang</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.01.2026 16:10:32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>450</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,37 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SN-2026-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hydraulikpumpe X1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tech-Parts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:11:02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,37 @@
         <v>450</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SN-2026-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hydraulikpumpe X1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tech-Parts</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:11:13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,37 @@
         <v>450</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MESS-449</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital-Multimeter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mess-Fix</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:11:51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,37 @@
         <v>89</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KABEL-NYM-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ring NYM-J 3x1.5 50m</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elektro-Zentrum</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:13:17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Ausgang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -484,7 +484,11 @@
           <t>28.01.2026 16:11:02</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:14:15</t>
+        </is>
+      </c>
       <c r="G2" t="n">
         <v>450</v>
       </c>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,134 +458,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SN-2026-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hydraulikpumpe X1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tech-Parts</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ausgang</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.01.2026 16:11:02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>28.01.2026 16:14:15</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SN-2026-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hydraulikpumpe X1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tech-Parts</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Eingang</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.01.2026 16:11:13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MESS-449</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Digital-Multimeter</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mess-Fix</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eingang</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.01.2026 16:11:51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KABEL-NYM-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ring NYM-J 3x1.5 50m</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Elektro-Zentrum</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Eingang</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.01.2026 16:13:17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>32.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,37 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SN-2026-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hydraulikpumpe X1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tech-Parts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:18:22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,37 @@
         <v>450</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KABEL-NYM-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ring NYM-J 3x1.5 50m</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elektro-Zentrum</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:18:52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eingang</t>
+          <t>Ausgang</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -515,7 +515,11 @@
           <t>28.01.2026 16:18:52</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>28.01.2026 16:19:12</t>
+        </is>
+      </c>
       <c r="G3" t="n">
         <v>32.5</v>
       </c>

--- a/Lagerbestand.xlsx
+++ b/Lagerbestand.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,37 +434,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>QR_ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Lieferant</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Datum_Eingang</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Datum_Ausgang</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Preis</t>
         </is>
@@ -522,6 +534,37 @@
       </c>
       <c r="G3" t="n">
         <v>32.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OIL-5L-001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Motoröl 5W-30 5L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Schmierstoff-Shop</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eingang</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.01.2026 10:51:04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
